--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H2">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N2">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O2">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P2">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q2">
-        <v>459.3338402921343</v>
+        <v>487.288936505644</v>
       </c>
       <c r="R2">
-        <v>459.3338402921343</v>
+        <v>4385.600428550796</v>
       </c>
       <c r="S2">
-        <v>0.0596957902322389</v>
+        <v>0.0532775423955168</v>
       </c>
       <c r="T2">
-        <v>0.0596957902322389</v>
+        <v>0.05327754239551681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H3">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N3">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O3">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P3">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q3">
-        <v>0.8838126785110813</v>
+        <v>0.9601996277336666</v>
       </c>
       <c r="R3">
-        <v>0.8838126785110813</v>
+        <v>8.641796649603</v>
       </c>
       <c r="S3">
-        <v>0.0001148617663950813</v>
+        <v>0.0001049830450524652</v>
       </c>
       <c r="T3">
-        <v>0.0001148617663950813</v>
+        <v>0.0001049830450524652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H4">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N4">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O4">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P4">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q4">
-        <v>3.531557487090265</v>
+        <v>4.035436845942668</v>
       </c>
       <c r="R4">
-        <v>3.531557487090265</v>
+        <v>36.318931613484</v>
       </c>
       <c r="S4">
-        <v>0.0004589670876597144</v>
+        <v>0.000441212885287107</v>
       </c>
       <c r="T4">
-        <v>0.0004589670876597144</v>
+        <v>0.000441212885287107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H5">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N5">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O5">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P5">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q5">
-        <v>5.4121323027918</v>
+        <v>5.858169402090779</v>
       </c>
       <c r="R5">
-        <v>5.4121323027918</v>
+        <v>52.723524618817</v>
       </c>
       <c r="S5">
-        <v>0.0007033697200517711</v>
+        <v>0.000640500625600384</v>
       </c>
       <c r="T5">
-        <v>0.0007033697200517711</v>
+        <v>0.000640500625600384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H6">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N6">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O6">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P6">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q6">
-        <v>2.546246502533954</v>
+        <v>2.939240709202778</v>
       </c>
       <c r="R6">
-        <v>2.546246502533954</v>
+        <v>26.453166382825</v>
       </c>
       <c r="S6">
-        <v>0.000330914432514198</v>
+        <v>0.0003213607159196526</v>
       </c>
       <c r="T6">
-        <v>0.000330914432514198</v>
+        <v>0.0003213607159196526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H7">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N7">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O7">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P7">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q7">
-        <v>2131.620095621914</v>
+        <v>2247.22306457488</v>
       </c>
       <c r="R7">
-        <v>2131.620095621914</v>
+        <v>20225.00758117392</v>
       </c>
       <c r="S7">
-        <v>0.2770288947187979</v>
+        <v>0.2456992415088099</v>
       </c>
       <c r="T7">
-        <v>0.2770288947187979</v>
+        <v>0.2456992415088099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H8">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N8">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O8">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P8">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q8">
-        <v>4.101489376618682</v>
+        <v>4.428138191506666</v>
       </c>
       <c r="R8">
-        <v>4.101489376618682</v>
+        <v>39.85324372355999</v>
       </c>
       <c r="S8">
-        <v>0.0005330363844097942</v>
+        <v>0.0004841487309828774</v>
       </c>
       <c r="T8">
-        <v>0.0005330363844097942</v>
+        <v>0.0004841487309828775</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H9">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N9">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O9">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P9">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q9">
-        <v>16.38881843222764</v>
+        <v>18.61016345018667</v>
       </c>
       <c r="R9">
-        <v>16.38881843222764</v>
+        <v>167.49147105168</v>
       </c>
       <c r="S9">
-        <v>0.002129918115029996</v>
+        <v>0.002034734831689193</v>
       </c>
       <c r="T9">
-        <v>0.002129918115029996</v>
+        <v>0.002034734831689193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H10">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N10">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O10">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P10">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q10">
-        <v>25.11595916699339</v>
+        <v>27.01603178387111</v>
       </c>
       <c r="R10">
-        <v>25.11595916699339</v>
+        <v>243.14428605484</v>
       </c>
       <c r="S10">
-        <v>0.003264111847193222</v>
+        <v>0.002953787108415401</v>
       </c>
       <c r="T10">
-        <v>0.003264111847193222</v>
+        <v>0.002953787108415402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H11">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N11">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O11">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P11">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q11">
-        <v>11.8163081774172</v>
+        <v>13.55485220211111</v>
       </c>
       <c r="R11">
-        <v>11.8163081774172</v>
+        <v>121.993669819</v>
       </c>
       <c r="S11">
-        <v>0.001535667073494879</v>
+        <v>0.00148201438358446</v>
       </c>
       <c r="T11">
-        <v>0.001535667073494879</v>
+        <v>0.00148201438358446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H12">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N12">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O12">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P12">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q12">
-        <v>2409.432417827024</v>
+        <v>2760.095241589924</v>
       </c>
       <c r="R12">
-        <v>2409.432417827024</v>
+        <v>24840.85717430932</v>
       </c>
       <c r="S12">
-        <v>0.3131338464021747</v>
+        <v>0.3017739173476354</v>
       </c>
       <c r="T12">
-        <v>0.3131338464021747</v>
+        <v>0.3017739173476354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H13">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N13">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O13">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P13">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q13">
-        <v>4.636033168243796</v>
+        <v>5.438749425523667</v>
       </c>
       <c r="R13">
-        <v>4.636033168243796</v>
+        <v>48.94874482971299</v>
       </c>
       <c r="S13">
-        <v>0.0006025065850693054</v>
+        <v>0.0005946435089924796</v>
       </c>
       <c r="T13">
-        <v>0.0006025065850693054</v>
+        <v>0.0005946435089924797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H14">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N14">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O14">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P14">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q14">
-        <v>18.52475987705001</v>
+        <v>22.85746546206267</v>
       </c>
       <c r="R14">
-        <v>18.52475987705001</v>
+        <v>205.717189158564</v>
       </c>
       <c r="S14">
-        <v>0.002407508619481765</v>
+        <v>0.002499111910772881</v>
       </c>
       <c r="T14">
-        <v>0.002407508619481765</v>
+        <v>0.002499111910772881</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H15">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N15">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O15">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P15">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q15">
-        <v>28.38930180197892</v>
+        <v>33.18176194823411</v>
       </c>
       <c r="R15">
-        <v>28.38930180197892</v>
+        <v>298.635857534107</v>
       </c>
       <c r="S15">
-        <v>0.003689520902994694</v>
+        <v>0.003627914767842288</v>
       </c>
       <c r="T15">
-        <v>0.003689520902994694</v>
+        <v>0.003627914767842289</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H16">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N16">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O16">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P16">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q16">
-        <v>13.35631806069884</v>
+        <v>16.64840649478611</v>
       </c>
       <c r="R16">
-        <v>13.35631806069884</v>
+        <v>149.835658453075</v>
       </c>
       <c r="S16">
-        <v>0.001735809320557467</v>
+        <v>0.001820246913883075</v>
       </c>
       <c r="T16">
-        <v>0.001735809320557467</v>
+        <v>0.001820246913883075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H17">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N17">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O17">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P17">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q17">
-        <v>1858.785811200265</v>
+        <v>2652.95903089644</v>
       </c>
       <c r="R17">
-        <v>1858.785811200265</v>
+        <v>23876.63127806796</v>
       </c>
       <c r="S17">
-        <v>0.241570897109392</v>
+        <v>0.2900602222897321</v>
       </c>
       <c r="T17">
-        <v>0.241570897109392</v>
+        <v>0.2900602222897321</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H18">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N18">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O18">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P18">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q18">
-        <v>3.576523918922399</v>
+        <v>5.227638230669999</v>
       </c>
       <c r="R18">
-        <v>3.576523918922399</v>
+        <v>47.04874407602999</v>
       </c>
       <c r="S18">
-        <v>0.0004648109999663628</v>
+        <v>0.0005715617503245313</v>
       </c>
       <c r="T18">
-        <v>0.0004648109999663628</v>
+        <v>0.0005715617503245314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H19">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N19">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O19">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P19">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q19">
-        <v>14.29115029771487</v>
+        <v>21.97022715276</v>
       </c>
       <c r="R19">
-        <v>14.29115029771487</v>
+        <v>197.73204437484</v>
       </c>
       <c r="S19">
-        <v>0.001857301673674215</v>
+        <v>0.002402106062501889</v>
       </c>
       <c r="T19">
-        <v>0.001857301673674215</v>
+        <v>0.002402106062501889</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H20">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N20">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O20">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P20">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q20">
-        <v>21.90127060172598</v>
+        <v>31.89377442313</v>
       </c>
       <c r="R20">
-        <v>21.90127060172598</v>
+        <v>287.04396980817</v>
       </c>
       <c r="S20">
-        <v>0.00284632557189478</v>
+        <v>0.003487093163178509</v>
       </c>
       <c r="T20">
-        <v>0.00284632557189478</v>
+        <v>0.00348709316317851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H21">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N21">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O21">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P21">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q21">
-        <v>10.30389328101385</v>
+        <v>16.00217981425</v>
       </c>
       <c r="R21">
-        <v>10.30389328101385</v>
+        <v>144.01961832825</v>
       </c>
       <c r="S21">
-        <v>0.001339111116846037</v>
+        <v>0.001749591976349976</v>
       </c>
       <c r="T21">
-        <v>0.001339111116846037</v>
+        <v>0.001749591976349976</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H22">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N22">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O22">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P22">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q22">
-        <v>633.561837695042</v>
+        <v>746.9048915596239</v>
       </c>
       <c r="R22">
-        <v>633.561837695042</v>
+        <v>6722.144024036616</v>
       </c>
       <c r="S22">
-        <v>0.08233875069631501</v>
+        <v>0.08166254976122538</v>
       </c>
       <c r="T22">
-        <v>0.08233875069631501</v>
+        <v>0.08166254976122538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H23">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N23">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O23">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P23">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q23">
-        <v>1.219047968291499</v>
+        <v>1.471771150748666</v>
       </c>
       <c r="R23">
-        <v>1.219047968291499</v>
+        <v>13.245940356738</v>
       </c>
       <c r="S23">
-        <v>0.0001584295024984086</v>
+        <v>0.0001609155144026185</v>
       </c>
       <c r="T23">
-        <v>0.0001584295024984086</v>
+        <v>0.0001609155144026185</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H24">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N24">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O24">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P24">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q24">
-        <v>4.871097783746085</v>
+        <v>6.185421613362667</v>
       </c>
       <c r="R24">
-        <v>4.871097783746085</v>
+        <v>55.668794520264</v>
       </c>
       <c r="S24">
-        <v>0.0006330559736558767</v>
+        <v>0.0006762806161848055</v>
       </c>
       <c r="T24">
-        <v>0.0006330559736558767</v>
+        <v>0.0006762806161848055</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H25">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N25">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O25">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P25">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q25">
-        <v>7.464985565672005</v>
+        <v>8.979262721175777</v>
       </c>
       <c r="R25">
-        <v>7.464985565672005</v>
+        <v>80.813364490582</v>
       </c>
       <c r="S25">
-        <v>0.0009701619461166409</v>
+        <v>0.0009817441244172082</v>
       </c>
       <c r="T25">
-        <v>0.0009701619461166409</v>
+        <v>0.0009817441244172084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H26">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N26">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O26">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P26">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q26">
-        <v>3.512052611547179</v>
+        <v>4.505198248327777</v>
       </c>
       <c r="R26">
-        <v>3.512052611547179</v>
+        <v>40.54678423495</v>
       </c>
       <c r="S26">
-        <v>0.0004564322015773271</v>
+        <v>0.0004925740616988359</v>
       </c>
       <c r="T26">
-        <v>0.0004564322015773271</v>
+        <v>0.0004925740616988359</v>
       </c>
     </row>
   </sheetData>
